--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-12T19:06:04+00:00</t>
+    <t>2024-08-20T21:48:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T21:48:07+00:00</t>
+    <t>2024-08-22T16:27:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3102,7 +3102,7 @@
         <v>84</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-22T16:27:20+00:00</t>
+    <t>2024-09-10T18:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T18:56:29+00:00</t>
+    <t>2024-09-12T18:14:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T18:14:21+00:00</t>
+    <t>2024-09-13T20:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T20:57:31+00:00</t>
+    <t>2024-09-16T16:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T16:04:42+00:00</t>
+    <t>2024-09-18T19:34:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T19:34:29+00:00</t>
+    <t>2024-09-25T18:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T18:09:20+00:00</t>
+    <t>2024-09-26T15:36:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T15:36:52+00:00</t>
+    <t>2024-09-26T17:33:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T17:33:09+00:00</t>
+    <t>2024-09-26T18:25:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T18:25:51+00:00</t>
+    <t>2024-09-26T19:08:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T19:08:25+00:00</t>
+    <t>2024-10-07T20:39:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T20:39:38+00:00</t>
+    <t>2024-10-08T12:54:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T12:54:01+00:00</t>
+    <t>2024-10-08T13:48:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T13:48:24+00:00</t>
+    <t>2024-10-28T19:33:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T19:33:15+00:00</t>
+    <t>2024-10-30T18:30:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T18:30:14+00:00</t>
+    <t>2024-11-25T15:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T15:36:07+00:00</t>
+    <t>2025-01-06T15:08:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T15:08:44+00:00</t>
+    <t>2025-01-10T20:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:53:40+00:00</t>
+    <t>2025-01-13T15:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T15:02:43+00:00</t>
+    <t>2025-01-13T16:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T16:25:54+00:00</t>
+    <t>2025-01-14T18:54:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T18:54:07+00:00</t>
+    <t>2025-01-27T23:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T23:56:01+00:00</t>
+    <t>2025-01-28T00:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T00:06:22+00:00</t>
+    <t>2025-02-07T15:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="376">
   <si>
     <t>Property</t>
   </si>
@@ -42,43 +42,46 @@
     <t>Title</t>
   </si>
   <si>
+    <t>NCPI Sample</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2025-03-11T16:55:01+00:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>NCPI FHIR Working Group</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>NCPI FHIR Working Group (http://example.org/example-publisher, ncpi-fhir-ig@googlegroups.com)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>FHIR Profile for NCPI Sample</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>draft</t>
-  </si>
-  <si>
-    <t>Experimental</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2025-02-07T15:45:47+00:00</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>NCPI FHIR Working Group</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>NCPI FHIR Working Group (http://example.org/example-publisher, ncpi-fhir-ig@googlegroups.com)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Description</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -257,7 +260,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where(((id.exists() and ('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url)))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(uri) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where(((id.exists() and ('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url)))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(uri) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}collection-no-parent:If there is no parent sample, collection information must be present. If there is collection information present, there should be no parent sample. {parent.empty() implies collection.exists() and collection.exists() implies parent.empty()}parent-no-collection:If there is no collection information, a parent sample must be present. If there is a parent sample present, there should be no collection information. {collection.empty() implies parent.exists() and parent.exists() implies collection.empty()}</t>
   </si>
   <si>
     <t>Role[classCode=SPEC]</t>
@@ -417,10 +420,280 @@
     <t>Specimen.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Specimen.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4B/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Specimen.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Unique ID for this sample</t>
+  </si>
+  <si>
+    <t>Id for specimen.</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>SPM-2</t>
+  </si>
+  <si>
+    <t>Specimen.accessionIdentifier</t>
+  </si>
+  <si>
+    <t>Identifier assigned by the lab</t>
+  </si>
+  <si>
+    <t>The identifier assigned by the lab when accessioning specimen(s). This is not necessarily the same as the specimen identifier, depending on local lab procedures.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].act[classCode=ACSN, moodCode=EVN].id</t>
+  </si>
+  <si>
+    <t>SPM-30 (v2.7+)</t>
+  </si>
+  <si>
+    <t>Specimen.status</t>
+  </si>
+  <si>
+    <t>Can this Sample be requested for further analysis?</t>
+  </si>
+  <si>
+    <t>The availability of the specimen.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes providing the status/availability of a specimen.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/specimen-status|4.3.0</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>SPM-20</t>
+  </si>
+  <si>
+    <t>Specimen.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>The type of material of which this Sample is comprised</t>
+  </si>
+  <si>
+    <t>The kind of material that forms the specimen.</t>
+  </si>
+  <si>
+    <t>The type can change the way that a specimen is handled and drives what kind of analyses can properly be performed on the specimen. It is frequently used in diagnostic work flow decision making systems.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>The type of the specimen.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-0487</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>SPM-4 and possibly SPM-5</t>
+  </si>
+  <si>
+    <t>Specimen.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|Group|Device|Substance|Location)
+</t>
+  </si>
+  <si>
+    <t>The participant from whom the biospecimen was taken</t>
+  </si>
+  <si>
+    <t>Where the specimen came from. This may be from patient(s), from a location (e.g., the source of an environmental sample), or a sampling of a substance or a device.</t>
+  </si>
+  <si>
+    <t>Must know the subject context.</t>
+  </si>
+  <si>
+    <t>.scoper  or  .scoper.playsRole</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Specimen.receivedTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>The time when specimen was received for processing</t>
+  </si>
+  <si>
+    <t>Time when specimen was received for processing or testing.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].act[code=SPCREC, moodCode=EVN].effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>SPM-18</t>
+  </si>
+  <si>
+    <t>Specimen.parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Specimen)
+</t>
+  </si>
+  <si>
+    <t>The Sample from which this Sample was derived</t>
+  </si>
+  <si>
+    <t>Reference to the parent (source) specimen which is used when the specimen was either derived from or a component of another specimen.</t>
+  </si>
+  <si>
+    <t>The parent specimen could be the source from which the current specimen is derived by some processing step (e.g. an aliquot or isolate or extracted nucleic acids from clinical samples) or one of many specimens that were combined to create a pooled sample.</t>
+  </si>
+  <si>
+    <t>.scoper (if parent) .player.scopesRole[classCode=SPEC].player (if child)</t>
+  </si>
+  <si>
+    <t>Specimen.request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>Why the specimen was collected</t>
+  </si>
+  <si>
+    <t>Details concerning a service request that required a specimen to be collected.</t>
+  </si>
+  <si>
+    <t>The request may be explicit or implied such with a ServiceRequest that requires a blood draw.</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>ORC? OBR-2/3?</t>
+  </si>
+  <si>
+    <t>Specimen.collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information about how the biospecimen was collected. Collection information may be unknown, but must be included when there is no parent sample </t>
+  </si>
+  <si>
+    <t>Details concerning the specimen collection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].act[classCode=SPECCOLLECT, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>SPM-14</t>
+  </si>
+  <si>
+    <t>Specimen.collection.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Specimen.collection.extension</t>
+  </si>
+  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -434,14 +707,10 @@
     <t>open</t>
   </si>
   <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Specimen.extension:biospecimen-spatial</t>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Specimen.collection.extension:biospecimen-spatial</t>
   </si>
   <si>
     <t>biospecimen-spatial</t>
@@ -465,7 +734,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Specimen.extension:biospecimen-laterality</t>
+    <t>Specimen.collection.extension:biospecimen-laterality</t>
   </si>
   <si>
     <t>biospecimen-laterality</t>
@@ -481,7 +750,273 @@
     <t>Laterality Information</t>
   </si>
   <si>
-    <t>Specimen.extension:aliquot-availability</t>
+    <t>Specimen.collection.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Specimen.collection.collector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
+</t>
+  </si>
+  <si>
+    <t>Who collected the specimen</t>
+  </si>
+  <si>
+    <t>Person who collected the specimen.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PFM].role</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>PRT</t>
+  </si>
+  <si>
+    <t>Specimen.collection.collected[x]</t>
+  </si>
+  <si>
+    <t>The age at which this biospecimen was collected. Could be expressed with a term, an age, or an age range. (for ages use http://hl7.org/fhir/StructureDefinition/cqf-relativeDateTime)</t>
+  </si>
+  <si>
+    <t>Time when specimen was collected from subject - the physiologically relevant time.</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.init</t>
+  </si>
+  <si>
+    <t>SPM-17</t>
+  </si>
+  <si>
+    <t>Specimen.collection.duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration
+</t>
+  </si>
+  <si>
+    <t>How long it took to collect specimen</t>
+  </si>
+  <si>
+    <t>The span of time over which the collection of a specimen occurred.</t>
+  </si>
+  <si>
+    <t>Specimen.collection.quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>The total quantity of the specimen</t>
+  </si>
+  <si>
+    <t>The quantity of specimen collected; for instance the volume of a blood sample, or the physical measurement of an anatomic pathology sample.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role[classCode=SPEC].player.quantity</t>
+  </si>
+  <si>
+    <t>SPM-12</t>
+  </si>
+  <si>
+    <t>Specimen.collection.method</t>
+  </si>
+  <si>
+    <t>The approach used to collect the biospecimen (unknown if not provided)</t>
+  </si>
+  <si>
+    <t>A coded value specifying the technique that is used to perform the procedure.</t>
+  </si>
+  <si>
+    <t>The  technique that is used to perform the procedure.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/specimen-collection-method</t>
+  </si>
+  <si>
+    <t>.methodCode</t>
+  </si>
+  <si>
+    <t>SPM-7</t>
+  </si>
+  <si>
+    <t>Specimen.collection.bodySite</t>
+  </si>
+  <si>
+    <t>The location of the specimen collection</t>
+  </si>
+  <si>
+    <t>Anatomical location from which the specimen was collected (if subject is a patient). This is the target site.  This element is not used for environmental specimens.</t>
+  </si>
+  <si>
+    <t>If the use case requires  BodySite to be handled as a separate resource instead of an inline coded element (e.g. to identify and track separately)  then use the standard extension [bodySite](http://hl7.org/fhir/R4B/extension-bodysite.html).</t>
+  </si>
+  <si>
+    <t>SNOMED CT Body site concepts</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+  </si>
+  <si>
+    <t>.targetSiteCode</t>
+  </si>
+  <si>
+    <t>SPM-8 and SPM-9</t>
+  </si>
+  <si>
+    <t>Specimen.collection.fastingStatus[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Duration</t>
+  </si>
+  <si>
+    <t>Whether or how long patient abstained from food and/or drink</t>
+  </si>
+  <si>
+    <t>Abstinence or reduction from some or all food, drink, or both, for a period of time prior to sample collection.</t>
+  </si>
+  <si>
+    <t>Representing fasting status using this element is preferred to representing it with an observation using a 'pre-coordinated code'  such as  LOINC 2005-7 (Calcium [Moles/​time] in 2 hour Urine --12 hours fasting), or  using  a component observation ` such as `Observation.component code`  = LOINC 49541-6 (Fasting status - Reported).</t>
+  </si>
+  <si>
+    <t>Many diagnostic tests require fasting  to facilitate accurate interpretation.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Codes describing the fasting status of the patient.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-0916</t>
+  </si>
+  <si>
+    <t>OBR-</t>
+  </si>
+  <si>
+    <t>Specimen.processing</t>
+  </si>
+  <si>
+    <t>Processing and processing step details</t>
+  </si>
+  <si>
+    <t>Details concerning processing and processing steps for the specimen.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].act[code=SPCTRT, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Specimen.processing.id</t>
+  </si>
+  <si>
+    <t>Specimen.processing.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Specimen.processing.modifierExtension</t>
+  </si>
+  <si>
+    <t>Specimen.processing.description</t>
+  </si>
+  <si>
+    <t>Textual description of procedure</t>
+  </si>
+  <si>
+    <t>Textual description of procedure.</t>
+  </si>
+  <si>
+    <t>.text</t>
+  </si>
+  <si>
+    <t>Specimen.processing.procedure</t>
+  </si>
+  <si>
+    <t>Processing that was applied to the Parent Sample or from the Biospecimen Collection that yielded this distinct sample</t>
+  </si>
+  <si>
+    <t>A coded value specifying the procedure used to process the specimen.</t>
+  </si>
+  <si>
+    <t>Type indicating the technique used to process the specimen.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/specimen-processing-procedure</t>
+  </si>
+  <si>
+    <t>Specimen.processing.additive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Substance)
+</t>
+  </si>
+  <si>
+    <t>Material used in the processing step</t>
+  </si>
+  <si>
+    <t>Material used in the processing step.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=ADTV].code</t>
+  </si>
+  <si>
+    <t>SPM-6</t>
+  </si>
+  <si>
+    <t>Specimen.processing.time[x]</t>
+  </si>
+  <si>
+    <t>dateTime
+Period</t>
+  </si>
+  <si>
+    <t>Date and time of specimen processing</t>
+  </si>
+  <si>
+    <t>A record of the time or period when the specimen processing occurred.  For example the time of sample fixation or the period of time the sample was in formalin.</t>
+  </si>
+  <si>
+    <t>Specimen.container</t>
+  </si>
+  <si>
+    <t>Direct container of specimen (tube/slide, etc.)</t>
+  </si>
+  <si>
+    <t>The container holding the specimen.  The recursive nature of containers; i.e. blood in tube in tray in rack is not addressed here.</t>
+  </si>
+  <si>
+    <t>.player.scopingRole[classCode=CONT].scoper</t>
+  </si>
+  <si>
+    <t>Specimen.container.id</t>
+  </si>
+  <si>
+    <t>Specimen.container.extension</t>
+  </si>
+  <si>
+    <t>Specimen.container.extension:aliquot-availability</t>
   </si>
   <si>
     <t>aliquot-availability</t>
@@ -491,13 +1026,10 @@
 </t>
   </si>
   <si>
-    <t>Can this Sample be requested for further analysis?</t>
-  </si>
-  <si>
     <t>Availability Status of Aliquot</t>
   </si>
   <si>
-    <t>Specimen.extension:aliquot-concentration</t>
+    <t>Specimen.container.extension:aliquot-concentration</t>
   </si>
   <si>
     <t>aliquot-concentration</t>
@@ -511,532 +1043,6 @@
   </si>
   <si>
     <t>Concentration of the Aliquot</t>
-  </si>
-  <si>
-    <t>Specimen.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4B/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Specimen.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Unique ID for this sample</t>
-  </si>
-  <si>
-    <t>Id for specimen.</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>SPM-2</t>
-  </si>
-  <si>
-    <t>Specimen.accessionIdentifier</t>
-  </si>
-  <si>
-    <t>Identifier assigned by the lab</t>
-  </si>
-  <si>
-    <t>The identifier assigned by the lab when accessioning specimen(s). This is not necessarily the same as the specimen identifier, depending on local lab procedures.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].act[classCode=ACSN, moodCode=EVN].id</t>
-  </si>
-  <si>
-    <t>SPM-30 (v2.7+)</t>
-  </si>
-  <si>
-    <t>Specimen.status</t>
-  </si>
-  <si>
-    <t>The availability of the specimen.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Codes providing the status/availability of a specimen.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/specimen-status|4.3.0</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>SPM-20</t>
-  </si>
-  <si>
-    <t>Specimen.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>The type of material of which this Sample is comprised</t>
-  </si>
-  <si>
-    <t>The kind of material that forms the specimen.</t>
-  </si>
-  <si>
-    <t>The type can change the way that a specimen is handled and drives what kind of analyses can properly be performed on the specimen. It is frequently used in diagnostic work flow decision making systems.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The type of the specimen.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0487</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>SPM-4 and possibly SPM-5</t>
-  </si>
-  <si>
-    <t>Specimen.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Substance|Location)
-</t>
-  </si>
-  <si>
-    <t>The participant from whom the biospecimen was taken</t>
-  </si>
-  <si>
-    <t>Where the specimen came from. This may be from patient(s), from a location (e.g., the source of an environmental sample), or a sampling of a substance or a device.</t>
-  </si>
-  <si>
-    <t>Must know the subject context.</t>
-  </si>
-  <si>
-    <t>.scoper  or  .scoper.playsRole</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Specimen.receivedTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>The time when specimen was received for processing</t>
-  </si>
-  <si>
-    <t>Time when specimen was received for processing or testing.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].act[code=SPCREC, moodCode=EVN].effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>SPM-18</t>
-  </si>
-  <si>
-    <t>Specimen.parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Specimen)
-</t>
-  </si>
-  <si>
-    <t>The Sample from which this Sample was derived</t>
-  </si>
-  <si>
-    <t>Reference to the parent (source) specimen which is used when the specimen was either derived from or a component of another specimen.</t>
-  </si>
-  <si>
-    <t>The parent specimen could be the source from which the current specimen is derived by some processing step (e.g. an aliquot or isolate or extracted nucleic acids from clinical samples) or one of many specimens that were combined to create a pooled sample.</t>
-  </si>
-  <si>
-    <t>.scoper (if parent) .player.scopesRole[classCode=SPEC].player (if child)</t>
-  </si>
-  <si>
-    <t>Specimen.request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>Why the specimen was collected</t>
-  </si>
-  <si>
-    <t>Details concerning a service request that required a specimen to be collected.</t>
-  </si>
-  <si>
-    <t>The request may be explicit or implied such with a ServiceRequest that requires a blood draw.</t>
-  </si>
-  <si>
-    <t>outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>ORC? OBR-2/3?</t>
-  </si>
-  <si>
-    <t>Specimen.collection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Collection details</t>
-  </si>
-  <si>
-    <t>Details concerning the specimen collection.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].act[classCode=SPECCOLLECT, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>SPM-14</t>
-  </si>
-  <si>
-    <t>Specimen.collection.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Specimen.collection.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Specimen.collection.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Specimen.collection.collector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
-</t>
-  </si>
-  <si>
-    <t>Who collected the specimen</t>
-  </si>
-  <si>
-    <t>Person who collected the specimen.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PFM].role</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>PRT</t>
-  </si>
-  <si>
-    <t>Specimen.collection.collected[x]</t>
-  </si>
-  <si>
-    <t>The age at which this biospecimen was collected. Could be expressed with a term, an age, or an age range. (for ages use http://hl7.org/fhir/StructureDefinition/cqf-relativeDateTime)</t>
-  </si>
-  <si>
-    <t>Time when specimen was collected from subject - the physiologically relevant time.</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.init</t>
-  </si>
-  <si>
-    <t>SPM-17</t>
-  </si>
-  <si>
-    <t>Specimen.collection.duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration
-</t>
-  </si>
-  <si>
-    <t>How long it took to collect specimen</t>
-  </si>
-  <si>
-    <t>The span of time over which the collection of a specimen occurred.</t>
-  </si>
-  <si>
-    <t>Specimen.collection.quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
-  </si>
-  <si>
-    <t>The total quantity of the specimen</t>
-  </si>
-  <si>
-    <t>The quantity of specimen collected; for instance the volume of a blood sample, or the physical measurement of an anatomic pathology sample.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role[classCode=SPEC].player.quantity</t>
-  </si>
-  <si>
-    <t>SPM-12</t>
-  </si>
-  <si>
-    <t>Specimen.collection.method</t>
-  </si>
-  <si>
-    <t>The approach used to collect the biospecimen</t>
-  </si>
-  <si>
-    <t>A coded value specifying the technique that is used to perform the procedure.</t>
-  </si>
-  <si>
-    <t>The  technique that is used to perform the procedure.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/specimen-collection-method</t>
-  </si>
-  <si>
-    <t>.methodCode</t>
-  </si>
-  <si>
-    <t>SPM-7</t>
-  </si>
-  <si>
-    <t>Specimen.collection.bodySite</t>
-  </si>
-  <si>
-    <t>The location of the specimen collection</t>
-  </si>
-  <si>
-    <t>Anatomical location from which the specimen was collected (if subject is a patient). This is the target site.  This element is not used for environmental specimens.</t>
-  </si>
-  <si>
-    <t>If the use case requires  BodySite to be handled as a separate resource instead of an inline coded element (e.g. to identify and track separately)  then use the standard extension [bodySite](http://hl7.org/fhir/R4B/extension-bodysite.html).</t>
-  </si>
-  <si>
-    <t>SNOMED CT Body site concepts</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
-  </si>
-  <si>
-    <t>.targetSiteCode</t>
-  </si>
-  <si>
-    <t>SPM-8 and SPM-9</t>
-  </si>
-  <si>
-    <t>Specimen.collection.fastingStatus[x]</t>
-  </si>
-  <si>
-    <t>CodeableConcept
-Duration</t>
-  </si>
-  <si>
-    <t>Whether or how long patient abstained from food and/or drink</t>
-  </si>
-  <si>
-    <t>Abstinence or reduction from some or all food, drink, or both, for a period of time prior to sample collection.</t>
-  </si>
-  <si>
-    <t>Representing fasting status using this element is preferred to representing it with an observation using a 'pre-coordinated code'  such as  LOINC 2005-7 (Calcium [Moles/​time] in 2 hour Urine --12 hours fasting), or  using  a component observation ` such as `Observation.component code`  = LOINC 49541-6 (Fasting status - Reported).</t>
-  </si>
-  <si>
-    <t>Many diagnostic tests require fasting  to facilitate accurate interpretation.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Codes describing the fasting status of the patient.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0916</t>
-  </si>
-  <si>
-    <t>OBR-</t>
-  </si>
-  <si>
-    <t>Specimen.processing</t>
-  </si>
-  <si>
-    <t>Processing and processing step details</t>
-  </si>
-  <si>
-    <t>Details concerning processing and processing steps for the specimen.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].act[code=SPCTRT, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Specimen.processing.id</t>
-  </si>
-  <si>
-    <t>Specimen.processing.extension</t>
-  </si>
-  <si>
-    <t>Specimen.processing.modifierExtension</t>
-  </si>
-  <si>
-    <t>Specimen.processing.description</t>
-  </si>
-  <si>
-    <t>Textual description of procedure</t>
-  </si>
-  <si>
-    <t>Textual description of procedure.</t>
-  </si>
-  <si>
-    <t>.text</t>
-  </si>
-  <si>
-    <t>Specimen.processing.procedure</t>
-  </si>
-  <si>
-    <t>Processing that was applied to the Parent Sample or from the Biospecimen Collection that yielded this distinct sample</t>
-  </si>
-  <si>
-    <t>A coded value specifying the procedure used to process the specimen.</t>
-  </si>
-  <si>
-    <t>Type indicating the technique used to process the specimen.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/specimen-processing-procedure</t>
-  </si>
-  <si>
-    <t>Specimen.processing.additive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Substance)
-</t>
-  </si>
-  <si>
-    <t>Material used in the processing step</t>
-  </si>
-  <si>
-    <t>Material used in the processing step.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=ADTV].code</t>
-  </si>
-  <si>
-    <t>SPM-6</t>
-  </si>
-  <si>
-    <t>Specimen.processing.time[x]</t>
-  </si>
-  <si>
-    <t>dateTime
-Period</t>
-  </si>
-  <si>
-    <t>Date and time of specimen processing</t>
-  </si>
-  <si>
-    <t>A record of the time or period when the specimen processing occurred.  For example the time of sample fixation or the period of time the sample was in formalin.</t>
-  </si>
-  <si>
-    <t>Specimen.container</t>
-  </si>
-  <si>
-    <t>Direct container of specimen (tube/slide, etc.)</t>
-  </si>
-  <si>
-    <t>The container holding the specimen.  The recursive nature of containers; i.e. blood in tube in tray in rack is not addressed here.</t>
-  </si>
-  <si>
-    <t>.player.scopingRole[classCode=CONT].scoper</t>
-  </si>
-  <si>
-    <t>Specimen.container.id</t>
-  </si>
-  <si>
-    <t>Specimen.container.extension</t>
   </si>
   <si>
     <t>Specimen.container.modifierExtension</t>
@@ -1411,67 +1417,67 @@
         <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1490,7 +1496,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.73828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.1171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="37.796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.51953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1532,129 +1538,129 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1662,10 +1668,10 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>20</v>
@@ -1677,13 +1683,13 @@
         <v>20</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1734,25 +1740,25 @@
         <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>20</v>
@@ -1760,10 +1766,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1771,10 +1777,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>20</v>
@@ -1783,19 +1789,19 @@
         <v>20</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1845,13 +1851,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -1871,10 +1877,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1882,10 +1888,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>20</v>
@@ -1894,16 +1900,16 @@
         <v>20</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1954,19 +1960,19 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
@@ -1980,10 +1986,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1991,31 +1997,31 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2065,19 +2071,19 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
@@ -2091,10 +2097,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2102,10 +2108,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -2117,16 +2123,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2152,13 +2158,13 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>20</v>
@@ -2176,19 +2182,19 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>20</v>
@@ -2202,21 +2208,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -2228,16 +2234,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2287,22 +2293,22 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>20</v>
@@ -2313,21 +2319,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>20</v>
@@ -2339,16 +2345,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2398,22 +2404,22 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>20</v>
@@ -2424,21 +2430,21 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>20</v>
@@ -2450,15 +2456,17 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>20</v>
@@ -2495,32 +2503,34 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>20</v>
@@ -2531,44 +2541,46 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C10" t="s" s="2">
         <v>138</v>
       </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>20</v>
       </c>
@@ -2616,22 +2628,22 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>20</v>
@@ -2642,23 +2654,21 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
@@ -2667,16 +2677,16 @@
         <v>20</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2727,49 +2737,47 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>20</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C12" t="s" s="2">
         <v>150</v>
       </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
@@ -2778,16 +2786,16 @@
         <v>20</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2838,69 +2846,69 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>20</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C13" t="s" s="2">
         <v>155</v>
       </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>20</v>
@@ -2925,13 +2933,13 @@
         <v>20</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>20</v>
@@ -2949,72 +2957,70 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>20</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>20</v>
       </c>
@@ -3038,13 +3044,13 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>20</v>
@@ -3065,33 +3071,33 @@
         <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>20</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3099,10 +3105,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>20</v>
@@ -3111,19 +3117,21 @@
         <v>20</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
       </c>
@@ -3171,36 +3179,36 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>172</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3208,10 +3216,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>20</v>
@@ -3220,16 +3228,16 @@
         <v>20</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3280,36 +3288,36 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3317,31 +3325,31 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3367,13 +3375,13 @@
         <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>181</v>
+        <v>20</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>20</v>
@@ -3391,36 +3399,36 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>186</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3428,10 +3436,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>20</v>
@@ -3440,19 +3448,19 @@
         <v>20</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3478,13 +3486,13 @@
         <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>193</v>
+        <v>20</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>20</v>
@@ -3502,36 +3510,36 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3539,10 +3547,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>20</v>
@@ -3551,21 +3559,19 @@
         <v>20</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>202</v>
-      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>20</v>
       </c>
@@ -3613,36 +3619,36 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>96</v>
+        <v>208</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>20</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3650,10 +3656,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -3662,16 +3668,16 @@
         <v>20</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3722,36 +3728,36 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>210</v>
+        <v>20</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>211</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3759,10 +3765,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>20</v>
@@ -3774,17 +3780,15 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>213</v>
+        <v>132</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -3821,34 +3825,32 @@
         <v>20</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="AC21" s="2"/>
       <c r="AD21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>20</v>
+        <v>221</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>20</v>
@@ -3859,21 +3861,23 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>20</v>
@@ -3885,17 +3889,15 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -3944,47 +3946,49 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>20</v>
+        <v>228</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>96</v>
+        <v>229</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>224</v>
+        <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>225</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
@@ -3996,13 +4000,13 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4053,68 +4057,72 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>20</v>
+        <v>228</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>232</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>20</v>
+        <v>236</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>234</v>
+        <v>132</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
       </c>
@@ -4162,22 +4170,22 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>238</v>
+        <v>129</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>20</v>
@@ -4188,21 +4196,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>20</v>
@@ -4211,20 +4219,18 @@
         <v>20</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>130</v>
+        <v>241</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4273,72 +4279,68 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>20</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>20</v>
       </c>
@@ -4389,33 +4391,33 @@
         <v>247</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>20</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4423,10 +4425,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>20</v>
@@ -4435,16 +4437,16 @@
         <v>20</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4495,36 +4497,36 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>254</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4532,10 +4534,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -4544,16 +4546,16 @@
         <v>20</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4604,36 +4606,36 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>259</v>
+        <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4641,10 +4643,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
@@ -4653,16 +4655,16 @@
         <v>20</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>262</v>
+        <v>166</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4689,13 +4691,13 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>20</v>
+        <v>267</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -4713,36 +4715,36 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>259</v>
+        <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>20</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4750,10 +4752,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
@@ -4765,15 +4767,17 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>266</v>
+        <v>166</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -4798,13 +4802,13 @@
         <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>20</v>
+        <v>274</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>20</v>
+        <v>275</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>20</v>
@@ -4822,36 +4826,36 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4859,10 +4863,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>20</v>
@@ -4871,19 +4875,23 @@
         <v>20</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>188</v>
+        <v>279</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
       </c>
@@ -4907,13 +4915,13 @@
         <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>192</v>
+        <v>284</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>20</v>
@@ -4931,36 +4939,36 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>276</v>
+        <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4968,10 +4976,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>20</v>
@@ -4983,17 +4991,15 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5018,13 +5024,13 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>282</v>
+        <v>20</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>283</v>
+        <v>20</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
@@ -5042,36 +5048,36 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>96</v>
+        <v>208</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>285</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5079,10 +5085,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
@@ -5091,23 +5097,19 @@
         <v>20</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>287</v>
+        <v>212</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>213</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>20</v>
       </c>
@@ -5131,13 +5133,13 @@
         <v>20</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>292</v>
+        <v>20</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>293</v>
+        <v>20</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>294</v>
+        <v>20</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>20</v>
@@ -5155,47 +5157,47 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>286</v>
+        <v>215</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>295</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
@@ -5207,15 +5209,17 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>227</v>
+        <v>132</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>297</v>
+        <v>133</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -5264,22 +5268,22 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>296</v>
+        <v>222</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>230</v>
+        <v>137</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>299</v>
+        <v>216</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>20</v>
@@ -5290,42 +5294,46 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>20</v>
+        <v>236</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>234</v>
+        <v>132</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
       </c>
@@ -5373,22 +5381,22 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>238</v>
+        <v>129</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>20</v>
@@ -5399,21 +5407,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
@@ -5425,17 +5433,15 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>240</v>
+        <v>297</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -5484,22 +5490,22 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>242</v>
+        <v>296</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>238</v>
+        <v>299</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>20</v>
@@ -5510,46 +5516,42 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>245</v>
+        <v>301</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>20</v>
       </c>
@@ -5573,13 +5575,13 @@
         <v>20</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>20</v>
+        <v>303</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>20</v>
+        <v>304</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>20</v>
@@ -5597,22 +5599,22 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>20</v>
@@ -5623,10 +5625,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5634,10 +5636,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
@@ -5649,13 +5651,13 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5706,36 +5708,36 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>20</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5743,10 +5745,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>20</v>
@@ -5758,13 +5760,13 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>188</v>
+        <v>312</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5791,46 +5793,46 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>310</v>
+        <v>20</v>
       </c>
       <c r="Z39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AA39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>307</v>
-      </c>
       <c r="AG39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>195</v>
+        <v>250</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>20</v>
@@ -5841,10 +5843,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5852,10 +5854,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>20</v>
@@ -5867,13 +5869,13 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>313</v>
+        <v>205</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5924,36 +5926,36 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>96</v>
+        <v>208</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>317</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5961,10 +5963,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>20</v>
@@ -5976,13 +5978,13 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>319</v>
+        <v>212</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>320</v>
+        <v>213</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>321</v>
+        <v>214</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6033,22 +6035,22 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>318</v>
+        <v>215</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>20</v>
@@ -6059,10 +6061,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6070,10 +6072,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>20</v>
@@ -6085,13 +6087,13 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>227</v>
+        <v>132</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>323</v>
+        <v>218</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>324</v>
+        <v>219</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6130,34 +6132,32 @@
         <v>20</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>20</v>
+        <v>221</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>230</v>
+        <v>137</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>325</v>
+        <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>20</v>
@@ -6168,21 +6168,23 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="D43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
@@ -6194,13 +6196,13 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>234</v>
+        <v>323</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>235</v>
+        <v>156</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>236</v>
+        <v>324</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6251,22 +6253,22 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>20</v>
+        <v>228</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>20</v>
+        <v>229</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>238</v>
+        <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>20</v>
@@ -6277,21 +6279,23 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="D44" t="s" s="2">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
@@ -6303,17 +6307,15 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>130</v>
+        <v>327</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>240</v>
+        <v>328</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -6362,22 +6364,22 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>20</v>
+        <v>228</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>136</v>
+        <v>229</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>238</v>
+        <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>20</v>
@@ -6388,45 +6390,45 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -6475,22 +6477,22 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>20</v>
@@ -6501,10 +6503,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6512,10 +6514,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
@@ -6524,16 +6526,16 @@
         <v>20</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6584,36 +6586,36 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6621,10 +6623,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
@@ -6636,13 +6638,13 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6693,22 +6695,22 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>20</v>
@@ -6719,10 +6721,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6730,10 +6732,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
@@ -6745,13 +6747,13 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6778,13 +6780,13 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -6802,36 +6804,36 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6839,10 +6841,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>20</v>
@@ -6854,13 +6856,13 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6911,36 +6913,36 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6948,10 +6950,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>20</v>
@@ -6963,13 +6965,13 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7020,36 +7022,36 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7057,10 +7059,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>20</v>
@@ -7072,13 +7074,13 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7105,13 +7107,13 @@
         <v>20</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>20</v>
@@ -7129,36 +7131,36 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7166,10 +7168,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>20</v>
@@ -7178,22 +7180,22 @@
         <v>20</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -7218,13 +7220,13 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -7242,19 +7244,19 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>20</v>
@@ -7263,15 +7265,15 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7279,10 +7281,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>20</v>
@@ -7294,13 +7296,13 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7351,28 +7353,28 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-11T16:55:01+00:00</t>
+    <t>2025-03-24T15:08:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T15:08:47+00:00</t>
+    <t>2025-05-11T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1496,17 +1496,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.1171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.96484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.40234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.44921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="87.05859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="74.63671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1515,25 +1515,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.1484375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.6953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="36.70703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.99609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.75" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="31.46875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="99.94921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="54.51171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="85.6875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="46.734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-11T16:39:55+00:00</t>
+    <t>2025-05-16T18:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-16T18:22:27+00:00</t>
+    <t>2025-05-21T14:15:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:15:46+00:00</t>
+    <t>2025-05-21T14:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="372">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:22:51+00:00</t>
+    <t>2025-06-13T15:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,7 +93,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Kind</t>
@@ -260,13 +260,10 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where(((id.exists() and ('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url)))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(uri) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}collection-no-parent:If there is no parent sample, collection information must be present. If there is collection information present, there should be no parent sample. {parent.empty() implies collection.exists() and collection.exists() implies parent.empty()}parent-no-collection:If there is no collection information, a parent sample must be present. If there is a parent sample present, there should be no collection information. {collection.empty() implies parent.exists() and parent.exists() implies collection.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}collection-no-parent:If there is no parent sample, collection information must be present. If there is collection information present, there should be no parent sample. {parent.empty() implies collection.exists() and collection.exists() implies parent.empty()}parent-no-collection:If there is no collection information, a parent sample must be present. If there is a parent sample present, there should be no collection information. {collection.empty() implies parent.exists() and parent.exists() implies collection.empty()}</t>
   </si>
   <si>
     <t>Role[classCode=SPEC]</t>
-  </si>
-  <si>
-    <t>clinical.diagnostics</t>
   </si>
   <si>
     <t>Specimen.id</t>
@@ -352,7 +349,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>IETF language tag</t>
+    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -410,10 +407,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -454,7 +447,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4B/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -515,7 +508,7 @@
     <t>Codes providing the status/availability of a specimen.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/specimen-status|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/specimen-status|4.0.1</t>
   </si>
   <si>
     <t>status</t>
@@ -656,14 +649,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Information about how the biospecimen was collected. Collection information may be unknown, but must be included when there is no parent sample </t>
+    <t>Information about how the biospecimen was collected. Collection information may be unknown, but must be included when there is no parent sample</t>
   </si>
   <si>
     <t>Details concerning the specimen collection.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-</t>
   </si>
   <si>
     <t>.participation[typeCode=SBJ].act[classCode=SPECCOLLECT, moodCode=EVN]</t>
@@ -730,10 +719,6 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>Specimen.collection.extension:biospecimen-laterality</t>
   </si>
   <si>
@@ -869,10 +854,10 @@
     <t>Anatomical location from which the specimen was collected (if subject is a patient). This is the target site.  This element is not used for environmental specimens.</t>
   </si>
   <si>
-    <t>If the use case requires  BodySite to be handled as a separate resource instead of an inline coded element (e.g. to identify and track separately)  then use the standard extension [bodySite](http://hl7.org/fhir/R4B/extension-bodysite.html).</t>
-  </si>
-  <si>
-    <t>SNOMED CT Body site concepts</t>
+    <t>If the use case requires  BodySite to be handled as a separate resource instead of an inline coded element (e.g. to identify and track separately)  then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
+  </si>
+  <si>
+    <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/body-site</t>
@@ -1520,7 +1505,7 @@
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.99609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="49.63671875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="47.75" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
@@ -1758,7 +1743,7 @@
         <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>20</v>
@@ -1766,10 +1751,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1780,28 +1765,28 @@
         <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1851,13 +1836,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -1877,10 +1862,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1891,25 +1876,25 @@
         <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1960,19 +1945,19 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
@@ -1986,10 +1971,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2000,28 +1985,28 @@
         <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2071,19 +2056,19 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
@@ -2097,10 +2082,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2111,7 +2096,7 @@
         <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -2123,16 +2108,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2158,43 +2143,43 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>20</v>
@@ -2208,21 +2193,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -2234,16 +2219,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2293,22 +2278,22 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>20</v>
@@ -2319,14 +2304,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2345,16 +2330,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2404,7 +2389,7 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -2416,10 +2401,10 @@
         <v>20</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>20</v>
@@ -2430,14 +2415,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2456,16 +2441,16 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2515,7 +2500,7 @@
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -2527,10 +2512,10 @@
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>20</v>
@@ -2541,14 +2526,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2561,25 +2546,25 @@
         <v>20</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>20</v>
@@ -2628,7 +2613,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2640,10 +2625,10 @@
         <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>20</v>
@@ -2654,10 +2639,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2665,28 +2650,28 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2737,7 +2722,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2749,24 +2734,24 @@
         <v>20</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2777,25 +2762,25 @@
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K12" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2846,36 +2831,36 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2886,28 +2871,28 @@
         <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2933,60 +2918,60 @@
         <v>20</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="Z13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="AA13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2994,31 +2979,31 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3044,60 +3029,60 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="Z14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="AA14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="Z14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AA14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>175</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3105,32 +3090,32 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3179,25 +3164,25 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>20</v>
@@ -3205,10 +3190,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3219,25 +3204,25 @@
         <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3288,36 +3273,36 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3340,16 +3325,16 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3399,7 +3384,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3411,10 +3396,10 @@
         <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>20</v>
@@ -3425,10 +3410,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3451,16 +3436,16 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3510,7 +3495,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3522,24 +3507,24 @@
         <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3550,7 +3535,7 @@
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>20</v>
@@ -3562,13 +3547,13 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3619,36 +3604,36 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>208</v>
+        <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3659,7 +3644,7 @@
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -3671,13 +3656,13 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3728,13 +3713,13 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>20</v>
@@ -3743,7 +3728,7 @@
         <v>20</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>20</v>
@@ -3754,10 +3739,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3780,13 +3765,13 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3825,17 +3810,17 @@
         <v>20</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -3847,7 +3832,7 @@
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>20</v>
@@ -3861,13 +3846,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>20</v>
@@ -3877,7 +3862,7 @@
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>20</v>
@@ -3889,13 +3874,13 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3946,7 +3931,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -3955,10 +3940,10 @@
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>229</v>
+        <v>135</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>20</v>
@@ -3972,13 +3957,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>20</v>
@@ -3988,7 +3973,7 @@
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
@@ -4000,13 +3985,13 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4057,7 +4042,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -4066,10 +4051,10 @@
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>229</v>
+        <v>135</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>20</v>
@@ -4083,14 +4068,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4103,25 +4088,25 @@
         <v>20</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4170,7 +4155,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -4182,10 +4167,10 @@
         <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>20</v>
@@ -4196,10 +4181,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4210,25 +4195,25 @@
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K25" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4279,36 +4264,36 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AG25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="AL25" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4319,25 +4304,25 @@
         <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K26" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4388,36 +4373,36 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="AM26" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4428,25 +4413,25 @@
         <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K27" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4497,25 +4482,25 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>20</v>
@@ -4523,10 +4508,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4537,7 +4522,7 @@
         <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -4549,13 +4534,13 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4606,36 +4591,36 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="AL28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4643,10 +4628,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
@@ -4658,13 +4643,13 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4691,13 +4676,13 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -4715,36 +4700,36 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4755,7 +4740,7 @@
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
@@ -4767,16 +4752,16 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4802,13 +4787,13 @@
         <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>20</v>
@@ -4826,36 +4811,36 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4866,31 +4851,31 @@
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K31" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O31" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -4915,13 +4900,13 @@
         <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>20</v>
@@ -4939,19 +4924,19 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>20</v>
@@ -4960,15 +4945,15 @@
         <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4991,13 +4976,13 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5048,7 +5033,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -5060,10 +5045,10 @@
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>208</v>
+        <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>20</v>
@@ -5074,10 +5059,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5088,7 +5073,7 @@
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
@@ -5100,13 +5085,13 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5157,13 +5142,13 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
@@ -5172,7 +5157,7 @@
         <v>20</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>20</v>
@@ -5183,14 +5168,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5209,16 +5194,16 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5268,7 +5253,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5280,10 +5265,10 @@
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>20</v>
@@ -5294,14 +5279,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5314,25 +5299,25 @@
         <v>20</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -5381,7 +5366,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5393,10 +5378,10 @@
         <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>20</v>
@@ -5407,10 +5392,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5421,7 +5406,7 @@
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
@@ -5433,13 +5418,13 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5490,22 +5475,22 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>20</v>
@@ -5516,10 +5501,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5527,10 +5512,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>20</v>
@@ -5542,13 +5527,13 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5575,13 +5560,13 @@
         <v>20</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>20</v>
@@ -5599,22 +5584,22 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>20</v>
@@ -5625,10 +5610,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5651,13 +5636,13 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5708,7 +5693,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -5720,24 +5705,24 @@
         <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5748,7 +5733,7 @@
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>20</v>
@@ -5760,13 +5745,13 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5817,22 +5802,22 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>20</v>
@@ -5843,10 +5828,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5869,13 +5854,13 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5926,7 +5911,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -5938,10 +5923,10 @@
         <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>208</v>
+        <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>20</v>
@@ -5952,10 +5937,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5966,7 +5951,7 @@
         <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>20</v>
@@ -5978,13 +5963,13 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6035,13 +6020,13 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>20</v>
@@ -6050,7 +6035,7 @@
         <v>20</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>20</v>
@@ -6061,10 +6046,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6087,13 +6072,13 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6132,17 +6117,17 @@
         <v>20</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6154,7 +6139,7 @@
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>20</v>
@@ -6168,13 +6153,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>20</v>
@@ -6184,7 +6169,7 @@
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
@@ -6196,13 +6181,13 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6253,7 +6238,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6262,10 +6247,10 @@
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>229</v>
+        <v>135</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
@@ -6279,13 +6264,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>20</v>
@@ -6295,7 +6280,7 @@
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
@@ -6307,13 +6292,13 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6364,7 +6349,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6373,10 +6358,10 @@
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>229</v>
+        <v>135</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>20</v>
@@ -6390,14 +6375,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6410,25 +6395,25 @@
         <v>20</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -6477,7 +6462,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6489,10 +6474,10 @@
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>20</v>
@@ -6503,10 +6488,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6514,28 +6499,28 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J46" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K46" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6586,7 +6571,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6598,24 +6583,24 @@
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6626,7 +6611,7 @@
         <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
@@ -6638,13 +6623,13 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6695,22 +6680,22 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>20</v>
@@ -6721,10 +6706,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6735,7 +6720,7 @@
         <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
@@ -6747,13 +6732,13 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6780,13 +6765,13 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -6804,36 +6789,36 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6844,7 +6829,7 @@
         <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>20</v>
@@ -6856,13 +6841,13 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6913,36 +6898,36 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>349</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6953,7 +6938,7 @@
         <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>20</v>
@@ -6965,13 +6950,13 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7022,36 +7007,36 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>354</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7062,7 +7047,7 @@
         <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>20</v>
@@ -7074,13 +7059,13 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7107,13 +7092,13 @@
         <v>20</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>20</v>
@@ -7131,36 +7116,36 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7180,22 +7165,22 @@
         <v>20</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -7220,13 +7205,13 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -7244,7 +7229,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7256,7 +7241,7 @@
         <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>20</v>
@@ -7265,15 +7250,15 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7296,13 +7281,13 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>50</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7353,7 +7338,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7365,16 +7350,16 @@
         <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T15:45:04+00:00</t>
+    <t>2025-06-25T19:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T19:44:14+00:00</t>
+    <t>2025-06-27T14:40:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2650,10 +2650,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
@@ -6499,10 +6499,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-27T14:40:47+00:00</t>
+    <t>2025-07-21T16:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,7 +260,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}collection-no-parent:If there is no parent sample, collection information must be present. If there is collection information present, there should be no parent sample. {parent.empty() implies collection.exists() and collection.exists() implies parent.empty()}parent-no-collection:If there is no collection information, a parent sample must be present. If there is a parent sample present, there should be no collection information. {collection.empty() implies parent.exists() and parent.exists() implies collection.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}collection-xor-parent:If there is a parent sample, there should be no collection information. If there is collection information present, there should be no parent sample. {parent.exists().not() or collection.exists().not()}</t>
   </si>
   <si>
     <t>Role[classCode=SPEC]</t>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>84</v>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:00:02+00:00</t>
+    <t>2025-07-21T16:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -699,10 +699,10 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Specimen.collection.extension:biospecimen-spatial</t>
-  </si>
-  <si>
-    <t>biospecimen-spatial</t>
+    <t>Specimen.collection.extension:biospecimenSpatial</t>
+  </si>
+  <si>
+    <t>biospecimenSpatial</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/biospecimen-spatial}
@@ -719,10 +719,10 @@
 </t>
   </si>
   <si>
-    <t>Specimen.collection.extension:biospecimen-laterality</t>
-  </si>
-  <si>
-    <t>biospecimen-laterality</t>
+    <t>Specimen.collection.extension:biospecimenLaterality</t>
+  </si>
+  <si>
+    <t>biospecimenLaterality</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/biospecimen-laterality}
@@ -1001,10 +1001,10 @@
     <t>Specimen.container.extension</t>
   </si>
   <si>
-    <t>Specimen.container.extension:aliquot-availability</t>
-  </si>
-  <si>
-    <t>aliquot-availability</t>
+    <t>Specimen.container.extension:biospecimenAvailability</t>
+  </si>
+  <si>
+    <t>biospecimenAvailability</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/aliquot-availability}
@@ -1014,10 +1014,10 @@
     <t>Availability Status of Aliquot</t>
   </si>
   <si>
-    <t>Specimen.container.extension:aliquot-concentration</t>
-  </si>
-  <si>
-    <t>aliquot-concentration</t>
+    <t>Specimen.container.extension:aliquotConcentration</t>
+  </si>
+  <si>
+    <t>aliquotConcentration</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/aliquot-concentration}
@@ -1481,9 +1481,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.96484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.40234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.44921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="19.52734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:06:27+00:00</t>
+    <t>2025-07-22T19:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:44:39+00:00</t>
+    <t>2025-08-11T13:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:46:00+00:00</t>
+    <t>2025-08-11T15:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T15:03:48+00:00</t>
+    <t>2025-08-12T16:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:35:35+00:00</t>
+    <t>2025-08-12T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:41:46+00:00</t>
+    <t>2025-08-12T16:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:58:49+00:00</t>
+    <t>2025-08-12T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T17:45:57+00:00</t>
+    <t>2025-08-12T18:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-sample.xlsx
+++ b/StructureDefinition-ncpi-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T18:02:45+00:00</t>
+    <t>2025-08-26T23:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
